--- a/resources/Red Line.xlsx
+++ b/resources/Red Line.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Box Sync\Semester 6\ECE 1140\Track Layouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07de44e608f1ac43/Documents/GitHub/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32496B2C-17F6-4A94-B8A5-63B8F8A41FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F822D8-5459-4E71-8616-22FB504FA448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="66">
   <si>
     <t>Block Number</t>
   </si>
@@ -195,6 +195,39 @@
   </si>
   <si>
     <t>-1,10</t>
+  </si>
+  <si>
+    <t>Beacon</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>HERRON AVE,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>SHADYSIDE,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>SWISSVILLE,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>PENN STATION,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>STEEL PLAZA,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>FIRST AVE,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>STATION SQUARE,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>SOUTH HILLS JUNCTION,TRUE,BOTH</t>
   </si>
 </sst>
 </file>
@@ -622,11 +655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -634,23 +667,25 @@
     <col min="1" max="1" width="8.81640625" style="3"/>
     <col min="2" max="2" width="12.81640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13.26953125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="1"/>
-    <col min="15" max="15" width="20.36328125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.81640625" style="1"/>
-    <col min="18" max="18" width="11.453125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.81640625" style="1"/>
+    <col min="4" max="4" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="33.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="13.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" style="1"/>
+    <col min="18" max="18" width="20.36328125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.81640625" style="1"/>
+    <col min="21" max="21" width="11.453125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -661,44 +696,53 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -708,29 +752,35 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>50</v>
-      </c>
       <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="3">
+        <v>50</v>
+      </c>
+      <c r="I2" s="3">
         <v>0.5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="J2" s="3">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="9">
-        <f t="shared" ref="N2:N33" si="0">E2*D2/100</f>
+      <c r="K2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" ref="Q2:Q33" si="0">I2*H2/100</f>
         <v>0.25</v>
       </c>
-      <c r="O2" s="9">
-        <f>N2</f>
+      <c r="R2" s="9">
+        <f>Q2</f>
         <v>0.25</v>
       </c>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Red</v>
@@ -741,29 +791,29 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="H3" s="3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="J3" s="3">
         <v>40</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="9">
+      <c r="K3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O3" s="9">
-        <f>N3+O2</f>
+      <c r="R3" s="9">
+        <f>Q3+R2</f>
         <v>0.75</v>
       </c>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Red</v>
@@ -774,29 +824,29 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="H4" s="3">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3">
         <v>1.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="J4" s="3">
         <v>40</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="9">
+      <c r="K4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="9">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="O4" s="9">
-        <f t="shared" ref="O4:O67" si="2">N4+O3</f>
+      <c r="R4" s="9">
+        <f t="shared" ref="R4:R67" si="2">Q4+R3</f>
         <v>1.5</v>
       </c>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -807,28 +857,28 @@
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="H5" s="3">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="J5" s="3">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="9">
+      <c r="K5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O5" s="9">
+      <c r="R5" s="9">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -839,28 +889,28 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="H6" s="3">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3">
         <v>1.5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="J6" s="3">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="9">
+      <c r="K6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="9">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="O6" s="9">
+      <c r="R6" s="9">
         <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -871,28 +921,28 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="H7" s="3">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="J7" s="3">
         <v>40</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="9">
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O7" s="9">
+      <c r="R7" s="9">
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -903,35 +953,35 @@
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3">
         <v>75</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>0.5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>40</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="N8" s="9">
+      <c r="O8" s="8"/>
+      <c r="Q8" s="9">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="O8" s="9">
+      <c r="R8" s="9">
         <f t="shared" si="2"/>
         <v>4.125</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -942,28 +992,34 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="3">
         <v>75</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>40</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="9">
+      <c r="K9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="9">
+      <c r="R9" s="9">
         <f t="shared" si="2"/>
         <v>4.125</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -974,35 +1030,35 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="H10" s="3">
         <v>75</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>40</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="N10" s="9">
+      <c r="O10" s="8"/>
+      <c r="Q10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="9">
+      <c r="R10" s="9">
         <f t="shared" si="2"/>
         <v>4.125</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1013,28 +1069,28 @@
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
+      <c r="H11" s="3">
         <v>75</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>40</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="9">
+      <c r="K11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="9">
+      <c r="R11" s="9">
         <f t="shared" si="2"/>
         <v>4.125</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1045,28 +1101,28 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="3">
+      <c r="H12" s="3">
         <v>75</v>
       </c>
-      <c r="E12" s="10">
+      <c r="I12" s="10">
         <v>-0.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="J12" s="3">
         <v>40</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="9">
+      <c r="K12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="9">
         <f t="shared" si="0"/>
         <v>-0.375</v>
       </c>
-      <c r="O12" s="9">
+      <c r="R12" s="9">
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1077,28 +1133,28 @@
       <c r="C13" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="10">
+      <c r="H13" s="10">
         <v>75</v>
       </c>
-      <c r="E13" s="10">
+      <c r="I13" s="10">
         <v>-1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="J13" s="3">
         <v>40</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="K13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="9">
         <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
-      <c r="O13" s="9">
+      <c r="R13" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1109,28 +1165,28 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="10">
+      <c r="H14" s="10">
         <v>70</v>
       </c>
-      <c r="E14" s="10">
+      <c r="I14" s="10">
         <v>-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="J14" s="3">
         <v>40</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="9">
+      <c r="K14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="9">
         <f t="shared" si="0"/>
         <v>-1.4</v>
       </c>
-      <c r="O14" s="9">
+      <c r="R14" s="9">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1141,28 +1197,28 @@
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="10">
+      <c r="H15" s="10">
         <v>60</v>
       </c>
-      <c r="E15" s="10">
+      <c r="I15" s="10">
         <v>-1.25</v>
       </c>
-      <c r="F15" s="3">
+      <c r="J15" s="3">
         <v>40</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="9">
+      <c r="K15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="9">
         <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
-      <c r="O15" s="9">
+      <c r="R15" s="9">
         <f t="shared" si="2"/>
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1173,28 +1229,28 @@
       <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="H16" s="3">
         <v>60</v>
       </c>
-      <c r="E16" s="3">
+      <c r="I16" s="3">
         <v>-1</v>
       </c>
-      <c r="F16" s="3">
+      <c r="J16" s="3">
         <v>40</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="9">
+      <c r="K16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="9">
         <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
-      <c r="O16" s="9">
+      <c r="R16" s="9">
         <f t="shared" si="2"/>
         <v>0.25000000000000011</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1205,41 +1261,41 @@
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="3">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3">
+        <v>50</v>
+      </c>
+      <c r="I17" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="J17" s="3">
         <v>40</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="K17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>2</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="N17" s="9">
+      <c r="O17" s="8"/>
+      <c r="Q17" s="9">
         <f t="shared" si="0"/>
         <v>-0.25</v>
       </c>
-      <c r="O17" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R17" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1250,28 +1306,34 @@
       <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="I18" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>55</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="9">
+      <c r="K18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="9">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="O18" s="9">
+      <c r="R18" s="9">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1282,29 +1344,29 @@
       <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="3">
+      <c r="H19" s="3">
         <v>400</v>
       </c>
-      <c r="E19" s="3">
+      <c r="I19" s="3">
         <f>-100*0.241/400</f>
         <v>-6.0249999999999998E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="J19" s="3">
         <v>70</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="9">
+      <c r="K19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="9">
         <f t="shared" si="0"/>
         <v>-0.24099999999999999</v>
       </c>
-      <c r="O19" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R19" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1315,28 +1377,28 @@
       <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>70</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="9">
+      <c r="K20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R20" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1347,28 +1409,34 @@
       <c r="C21" s="5">
         <v>20</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>70</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="9">
+      <c r="K21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R21" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1379,35 +1447,35 @@
       <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>55</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="K22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="N22" s="9">
+      <c r="O22" s="8"/>
+      <c r="Q22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R22" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1418,28 +1486,34 @@
       <c r="C23" s="5">
         <v>22</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>55</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="9">
+      <c r="K23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R23" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1450,28 +1524,28 @@
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>55</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="9">
+      <c r="K24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R24" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1482,31 +1556,37 @@
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="3">
-        <v>50</v>
-      </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="3">
+        <v>50</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
         <v>70</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="K25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="9">
+      <c r="Q25" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R25" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1517,37 +1597,37 @@
       <c r="C26" s="5">
         <v>25</v>
       </c>
-      <c r="D26" s="3">
-        <v>50</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="3">
+        <v>50</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>70</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="K26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="O26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="9">
+      <c r="Q26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R26" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1558,31 +1638,37 @@
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="3">
-        <v>50</v>
-      </c>
       <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="3">
+        <v>50</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>70</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="K27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="9">
+      <c r="Q27" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R27" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1593,37 +1679,37 @@
       <c r="C28" s="5">
         <v>27</v>
       </c>
-      <c r="D28" s="3">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
+        <v>50</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
         <v>70</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="3">
+      <c r="N28" s="3">
         <v>3</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="O28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="9">
+      <c r="Q28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R28" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1634,31 +1720,31 @@
       <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" s="3">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
+        <v>50</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>70</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="9">
+      <c r="Q29" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R29" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1669,31 +1755,31 @@
       <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="D30" s="3">
+      <c r="H30" s="3">
         <v>60</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
         <v>70</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="K30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="9">
+      <c r="Q30" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R30" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1704,31 +1790,31 @@
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="3">
+      <c r="H31" s="3">
         <v>60</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
         <v>70</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="K31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="9">
+      <c r="Q31" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O31" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R31" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1739,31 +1825,31 @@
       <c r="C32" s="3">
         <v>31</v>
       </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>50</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>70</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L32" s="3" t="s">
+      <c r="K32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="9">
+      <c r="Q32" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O32" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R32" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1774,31 +1860,31 @@
       <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="3">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>50</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>70</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L33" s="8" t="s">
+      <c r="K33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="9">
+      <c r="Q33" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R33" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1809,37 +1895,37 @@
       <c r="C34" s="3">
         <v>33</v>
       </c>
-      <c r="D34" s="3">
-        <v>50</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="H34" s="3">
+        <v>50</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
         <v>70</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="3">
+      <c r="N34" s="3">
         <v>4</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="9">
-        <f t="shared" ref="N34:N65" si="3">E34*D34/100</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q34" s="9">
+        <f t="shared" ref="Q34:Q65" si="3">I34*H34/100</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1850,31 +1936,37 @@
       <c r="C35" s="3">
         <v>34</v>
       </c>
-      <c r="D35" s="3">
-        <v>50</v>
-      </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="3">
+        <v>50</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>70</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="K35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="9">
+      <c r="Q35" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O35" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R35" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1885,37 +1977,37 @@
       <c r="C36" s="5">
         <v>35</v>
       </c>
-      <c r="D36" s="3">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="3">
+        <v>50</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
         <v>70</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="K36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="O36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="9">
+      <c r="Q36" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O36" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R36" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1926,31 +2018,37 @@
       <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="3">
-        <v>50</v>
-      </c>
       <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="3">
+        <v>50</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
         <v>70</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="K37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="9">
+      <c r="Q37" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O37" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R37" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Red</v>
@@ -1961,31 +2059,31 @@
       <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="3">
-        <v>50</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="H38" s="3">
+        <v>50</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
         <v>70</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" s="3" t="s">
+      <c r="K38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="9">
+      <c r="Q38" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O38" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R38" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1996,37 +2094,37 @@
       <c r="C39" s="5">
         <v>38</v>
       </c>
-      <c r="D39" s="3">
-        <v>50</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="H39" s="3">
+        <v>50</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
         <v>70</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K39" s="3">
+      <c r="N39" s="3">
         <v>5</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="O39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="9">
+      <c r="Q39" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O39" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R39" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2037,31 +2135,31 @@
       <c r="C40" s="3">
         <v>39</v>
       </c>
-      <c r="D40" s="3">
-        <v>50</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="H40" s="3">
+        <v>50</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
         <v>70</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="K40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="9">
+      <c r="Q40" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O40" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R40" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2072,31 +2170,31 @@
       <c r="C41" s="3">
         <v>40</v>
       </c>
-      <c r="D41" s="3">
+      <c r="H41" s="3">
         <v>60</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>70</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="K41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="9">
+      <c r="Q41" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O41" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R41" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2107,31 +2205,31 @@
       <c r="C42" s="5">
         <v>41</v>
       </c>
-      <c r="D42" s="3">
+      <c r="H42" s="3">
         <v>60</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>70</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="K42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="9">
+      <c r="Q42" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O42" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R42" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2142,31 +2240,31 @@
       <c r="C43" s="3">
         <v>42</v>
       </c>
-      <c r="D43" s="3">
-        <v>50</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
+        <v>50</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>70</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="K43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="9">
+      <c r="Q43" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O43" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R43" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2177,31 +2275,31 @@
       <c r="C44" s="3">
         <v>43</v>
       </c>
-      <c r="D44" s="3">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
+        <v>50</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>70</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L44" s="8" t="s">
+      <c r="K44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="9">
+      <c r="Q44" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O44" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R44" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2212,37 +2310,43 @@
       <c r="C45" s="5">
         <v>44</v>
       </c>
-      <c r="D45" s="3">
-        <v>50</v>
-      </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="3">
+        <v>50</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>70</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>6</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N45" s="9">
+      <c r="Q45" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O45" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R45" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2253,37 +2357,37 @@
       <c r="C46" s="3">
         <v>45</v>
       </c>
-      <c r="D46" s="3">
-        <v>50</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="3">
+        <v>50</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>70</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="K46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="O46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="9">
+      <c r="Q46" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O46" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R46" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2294,31 +2398,37 @@
       <c r="C47" s="3">
         <v>46</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="3">
         <v>75</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>70</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L47" s="3" t="s">
+      <c r="K47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="9">
+      <c r="Q47" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O47" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R47" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2329,31 +2439,37 @@
       <c r="C48" s="5">
         <v>47</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="3">
         <v>75</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>70</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M48" s="8" t="s">
+      <c r="K48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N48" s="9">
+      <c r="Q48" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O48" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R48" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2364,35 +2480,35 @@
       <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="3">
         <v>75</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>70</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="K49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L49" s="8"/>
-      <c r="N49" s="9">
+      <c r="O49" s="8"/>
+      <c r="Q49" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O49" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R49" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2403,28 +2519,34 @@
       <c r="C50" s="3">
         <v>49</v>
       </c>
-      <c r="D50" s="3">
-        <v>50</v>
-      </c>
       <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="3">
+        <v>50</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
         <v>60</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N50" s="9">
+      <c r="K50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q50" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O50" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R50" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2435,28 +2557,28 @@
       <c r="C51" s="5">
         <v>50</v>
       </c>
-      <c r="D51" s="3">
-        <v>50</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="H51" s="3">
+        <v>50</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
         <v>60</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N51" s="9">
+      <c r="K51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q51" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O51" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R51" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2467,28 +2589,28 @@
       <c r="C52" s="3">
         <v>51</v>
       </c>
-      <c r="D52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
+        <v>50</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>55</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N52" s="9">
+      <c r="K52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q52" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O52" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R52" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2499,34 +2621,34 @@
       <c r="C53" s="3">
         <v>52</v>
       </c>
-      <c r="D53" s="3">
+      <c r="H53" s="3">
         <v>43.2</v>
       </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
         <v>55</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K53" s="3">
+      <c r="N53" s="3">
         <v>7</v>
       </c>
-      <c r="N53" s="9">
+      <c r="Q53" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O53" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R53" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2537,28 +2659,28 @@
       <c r="C54" s="5">
         <v>53</v>
       </c>
-      <c r="D54" s="3">
-        <v>50</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
+        <v>50</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>55</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N54" s="9">
+      <c r="K54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q54" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O54" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R54" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2569,28 +2691,28 @@
       <c r="C55" s="3">
         <v>54</v>
       </c>
-      <c r="D55" s="3">
-        <v>50</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="H55" s="3">
+        <v>50</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
         <v>55</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N55" s="9">
+      <c r="K55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q55" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O55" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R55" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2601,28 +2723,28 @@
       <c r="C56" s="3">
         <v>55</v>
       </c>
-      <c r="D56" s="3">
+      <c r="H56" s="3">
         <v>75</v>
       </c>
-      <c r="E56" s="3">
+      <c r="I56" s="3">
         <v>0.5</v>
       </c>
-      <c r="F56" s="3">
+      <c r="J56" s="3">
         <v>55</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N56" s="9">
+      <c r="K56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q56" s="9">
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="O56" s="9">
+      <c r="R56" s="9">
         <f t="shared" si="2"/>
         <v>-0.8660000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2633,28 +2755,28 @@
       <c r="C57" s="5">
         <v>56</v>
       </c>
-      <c r="D57" s="3">
+      <c r="H57" s="3">
         <v>75</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>0.5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>55</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N57" s="9">
+      <c r="K57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q57" s="9">
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="O57" s="9">
+      <c r="R57" s="9">
         <f t="shared" si="2"/>
         <v>-0.4910000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2665,28 +2787,28 @@
       <c r="C58" s="3">
         <v>57</v>
       </c>
-      <c r="D58" s="3">
+      <c r="H58" s="3">
         <v>75</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>0.5</v>
       </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>55</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N58" s="9">
+      <c r="K58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q58" s="9">
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="O58" s="9">
+      <c r="R58" s="9">
         <f t="shared" si="2"/>
         <v>-0.1160000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2697,28 +2819,28 @@
       <c r="C59" s="3">
         <v>58</v>
       </c>
-      <c r="D59" s="3">
+      <c r="H59" s="3">
         <v>75</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>1</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>55</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N59" s="9">
+      <c r="K59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q59" s="9">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="O59" s="9">
+      <c r="R59" s="9">
         <f t="shared" si="2"/>
         <v>0.6339999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2729,28 +2851,34 @@
       <c r="C60" s="5">
         <v>59</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="3">
         <v>75</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>0.5</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>55</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N60" s="9">
+      <c r="K60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q60" s="9">
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="O60" s="9">
+      <c r="R60" s="9">
         <f t="shared" si="2"/>
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2761,35 +2889,35 @@
       <c r="C61" s="3">
         <v>60</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" s="3">
         <v>75</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>55</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="3" t="s">
+      <c r="K61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L61" s="8"/>
-      <c r="N61" s="9">
+      <c r="O61" s="8"/>
+      <c r="Q61" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O61" s="9">
+      <c r="R61" s="9">
         <f t="shared" si="2"/>
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2800,28 +2928,34 @@
       <c r="C62" s="3">
         <v>61</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" s="3">
         <v>75</v>
       </c>
-      <c r="E62" s="3">
+      <c r="I62" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
         <v>55</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N62" s="9">
+      <c r="K62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q62" s="9">
         <f t="shared" si="3"/>
         <v>-0.375</v>
       </c>
-      <c r="O62" s="9">
+      <c r="R62" s="9">
         <f t="shared" si="2"/>
         <v>0.6339999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2832,28 +2966,28 @@
       <c r="C63" s="5">
         <v>62</v>
       </c>
-      <c r="D63" s="3">
+      <c r="H63" s="3">
         <v>75</v>
       </c>
-      <c r="E63" s="3">
+      <c r="I63" s="3">
         <v>-1</v>
       </c>
-      <c r="F63" s="3">
+      <c r="J63" s="3">
         <v>55</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N63" s="9">
+      <c r="K63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q63" s="9">
         <f t="shared" si="3"/>
         <v>-0.75</v>
       </c>
-      <c r="O63" s="9">
+      <c r="R63" s="9">
         <f t="shared" si="2"/>
         <v>-0.1160000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2864,28 +2998,28 @@
       <c r="C64" s="3">
         <v>63</v>
       </c>
-      <c r="D64" s="3">
+      <c r="H64" s="3">
         <v>75</v>
       </c>
-      <c r="E64" s="3">
+      <c r="I64" s="3">
         <v>-1</v>
       </c>
-      <c r="F64" s="3">
+      <c r="J64" s="3">
         <v>55</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N64" s="9">
+      <c r="K64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q64" s="9">
         <f t="shared" si="3"/>
         <v>-0.75</v>
       </c>
-      <c r="O64" s="9">
+      <c r="R64" s="9">
         <f t="shared" si="2"/>
         <v>-0.8660000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2896,28 +3030,28 @@
       <c r="C65" s="3">
         <v>64</v>
       </c>
-      <c r="D65" s="3">
+      <c r="H65" s="3">
         <v>75</v>
       </c>
-      <c r="E65" s="3">
+      <c r="I65" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F65" s="3">
+      <c r="J65" s="3">
         <v>55</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N65" s="9">
+      <c r="K65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q65" s="9">
         <f t="shared" si="3"/>
         <v>-0.375</v>
       </c>
-      <c r="O65" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R65" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2928,28 +3062,28 @@
       <c r="C66" s="5">
         <v>65</v>
       </c>
-      <c r="D66" s="3">
+      <c r="H66" s="3">
         <v>75</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>55</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N66" s="9">
-        <f t="shared" ref="N66:N77" si="4">E66*D66/100</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q66" s="9">
+        <f t="shared" ref="Q66:Q77" si="4">I66*H66/100</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2960,28 +3094,28 @@
       <c r="C67" s="3">
         <v>66</v>
       </c>
-      <c r="D67" s="3">
+      <c r="H67" s="3">
         <v>75</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
         <v>55</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N67" s="9">
+      <c r="K67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q67" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O67" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R67" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2992,31 +3126,31 @@
       <c r="C68" s="3">
         <v>67</v>
       </c>
-      <c r="D68" s="3">
-        <v>50</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="H68" s="3">
+        <v>50</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
         <v>55</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L68" s="3" t="s">
+      <c r="K68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N68" s="9">
+      <c r="Q68" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O68" s="9">
-        <f t="shared" ref="O68:O77" si="5">N68+O67</f>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R68" s="9">
+        <f t="shared" ref="R68:R77" si="5">Q68+R67</f>
+        <v>-1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3027,31 +3161,31 @@
       <c r="C69" s="5">
         <v>68</v>
       </c>
-      <c r="D69" s="3">
-        <v>50</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="H69" s="3">
+        <v>50</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
         <v>55</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L69" s="3" t="s">
+      <c r="K69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O69" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N69" s="9">
+      <c r="Q69" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O69" s="9">
+      <c r="R69" s="9">
         <f t="shared" si="5"/>
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3062,31 +3196,31 @@
       <c r="C70" s="3">
         <v>69</v>
       </c>
-      <c r="D70" s="3">
-        <v>50</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
+        <v>50</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>55</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="K70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="9">
+      <c r="Q70" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O70" s="9">
+      <c r="R70" s="9">
         <f t="shared" si="5"/>
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A77" si="6">A70</f>
         <v>Red</v>
@@ -3097,31 +3231,31 @@
       <c r="C71" s="3">
         <v>70</v>
       </c>
-      <c r="D71" s="3">
-        <v>50</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="H71" s="3">
+        <v>50</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
         <v>55</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L71" s="3" t="s">
+      <c r="K71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N71" s="9">
+      <c r="Q71" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O71" s="9">
+      <c r="R71" s="9">
         <f t="shared" si="5"/>
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3132,31 +3266,31 @@
       <c r="C72" s="5">
         <v>71</v>
       </c>
-      <c r="D72" s="3">
-        <v>50</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
+        <v>50</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>55</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L72" s="3" t="s">
+      <c r="K72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N72" s="9">
+      <c r="Q72" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O72" s="9">
+      <c r="R72" s="9">
         <f t="shared" si="5"/>
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3167,31 +3301,31 @@
       <c r="C73" s="3">
         <v>72</v>
       </c>
-      <c r="D73" s="3">
-        <v>50</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="H73" s="3">
+        <v>50</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
         <v>55</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L73" s="3" t="s">
+      <c r="K73" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O73" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="9">
+      <c r="Q73" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O73" s="9">
+      <c r="R73" s="9">
         <f t="shared" si="5"/>
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3202,31 +3336,31 @@
       <c r="C74" s="3">
         <v>73</v>
       </c>
-      <c r="D74" s="3">
-        <v>50</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="H74" s="3">
+        <v>50</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
         <v>55</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L74" s="3" t="s">
+      <c r="K74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O74" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="9">
+      <c r="Q74" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O74" s="9">
+      <c r="R74" s="9">
         <f t="shared" si="5"/>
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3237,31 +3371,31 @@
       <c r="C75" s="5">
         <v>74</v>
       </c>
-      <c r="D75" s="3">
-        <v>50</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="H75" s="3">
+        <v>50</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
         <v>55</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L75" s="3" t="s">
+      <c r="K75" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="9">
+      <c r="Q75" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O75" s="9">
+      <c r="R75" s="9">
         <f t="shared" si="5"/>
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3272,31 +3406,31 @@
       <c r="C76" s="3">
         <v>75</v>
       </c>
-      <c r="D76" s="3">
-        <v>50</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
+        <v>50</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>55</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L76" s="3" t="s">
+      <c r="K76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O76" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N76" s="9">
+      <c r="Q76" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O76" s="9">
+      <c r="R76" s="9">
         <f t="shared" si="5"/>
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3307,26 +3441,26 @@
       <c r="C77" s="3">
         <v>76</v>
       </c>
-      <c r="D77" s="3">
-        <v>50</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="H77" s="3">
+        <v>50</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
         <v>55</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L77" s="3" t="s">
+      <c r="K77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O77" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N77" s="9">
+      <c r="Q77" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O77" s="9">
+      <c r="R77" s="9">
         <f t="shared" si="5"/>
         <v>-1.2410000000000001</v>
       </c>

--- a/resources/Red Line.xlsx
+++ b/resources/Red Line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07de44e608f1ac43/Documents/GitHub/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F822D8-5459-4E71-8616-22FB504FA448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CF944D-3F9F-4499-94C3-63703778A7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,28 +206,28 @@
     <t>B1</t>
   </si>
   <si>
-    <t>HERRON AVE,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>SHADYSIDE,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>SWISSVILLE,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>PENN STATION,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>STEEL PLAZA,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>FIRST AVE,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>STATION SQUARE,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>SOUTH HILLS JUNCTION,TRUE,BOTH</t>
+    <t>FIRST AVE,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>STATION SQUARE,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>SHADYSIDE,TRUE,BOTH,TRUE</t>
+  </si>
+  <si>
+    <t>HERRON AVE,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>SWISSVILLE,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>PENN STATION,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>STEEL PLAZA,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>SOUTH HILLS JUNCTION,TRUE,BOTH,FALSE</t>
   </si>
 </sst>
 </file>
@@ -658,8 +658,8 @@
   <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3">
         <v>50</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="3">
         <v>75</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H21" s="3">
         <v>200</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H25" s="3">
         <v>50</v>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H27" s="3">
         <v>50</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H35" s="3">
         <v>50</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H37" s="3">
         <v>50</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H45" s="3">
         <v>50</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H47" s="3">
         <v>75</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H48" s="3">
         <v>75</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H50" s="3">
         <v>50</v>

--- a/resources/Red Line.xlsx
+++ b/resources/Red Line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07de44e608f1ac43/Documents/GitHub/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CF944D-3F9F-4499-94C3-63703778A7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{517A005F-F11A-4994-A256-7C5A1832339A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,9 +657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -669,7 +669,7 @@
     <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.26953125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="33.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" style="3" customWidth="1"/>
     <col min="10" max="11" width="13.26953125" style="3" customWidth="1"/>
@@ -956,6 +956,12 @@
       <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" s="3">
         <v>75</v>
       </c>
@@ -992,12 +998,6 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="H9" s="3">
         <v>75</v>
       </c>
@@ -1450,6 +1450,12 @@
       <c r="D22" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
@@ -1486,12 +1492,6 @@
       <c r="C23" s="5">
         <v>22</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
@@ -2360,6 +2360,12 @@
       <c r="D46" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H46" s="3">
         <v>50</v>
       </c>
@@ -2398,12 +2404,6 @@
       <c r="C47" s="3">
         <v>46</v>
       </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="H47" s="3">
         <v>75</v>
       </c>
@@ -2439,12 +2439,6 @@
       <c r="C48" s="5">
         <v>47</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H48" s="3">
         <v>75</v>
       </c>
@@ -2482,6 +2476,12 @@
       </c>
       <c r="D49" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H49" s="3">
         <v>75</v>
